--- a/hardware/EV1 Part Selection.xlsx
+++ b/hardware/EV1 Part Selection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/finberg_cisco_com/Documents/Desktop/HACTAR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finberg\cisco\hactar\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="13_ncr:1_{56CD1363-8292-439B-A8A9-E530DC6F9753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97F74E86-5B62-4EEA-AE68-C844AE165AA7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03B6C9E-E12B-4ED1-8CED-57C3367F3907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{1C8D90A9-3081-44D1-AFD0-F10A6D1B16D7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C8D90A9-3081-44D1-AFD0-F10A6D1B16D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="145">
   <si>
     <t>Component</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Datasheet</t>
   </si>
   <si>
-    <t>3A 1 Surface Mount 16 Female -25℃~+85℃ Type-C SMD USB Connectors ROHS</t>
-  </si>
-  <si>
     <t>FerriteBead</t>
   </si>
   <si>
@@ -87,18 +84,12 @@
     <t>Capacitor 1u (X2)</t>
   </si>
   <si>
-    <t>Capacitor 100n (X4)</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
     <t>Diode</t>
   </si>
   <si>
-    <t>1x4 pin male header (x3)</t>
-  </si>
-  <si>
     <t>1x9 pin male header</t>
   </si>
   <si>
@@ -108,39 +99,21 @@
     <t>1x7 pin male header</t>
   </si>
   <si>
-    <t>1x6 pin male header</t>
-  </si>
-  <si>
     <t>USB-C plug</t>
   </si>
   <si>
-    <t>Resistor 1.5k (X3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistor 10k </t>
-  </si>
-  <si>
     <t>Resistor 2.2k (X4)</t>
   </si>
   <si>
     <t>Resistor 15k (X2)</t>
   </si>
   <si>
-    <t>Reset Button</t>
-  </si>
-  <si>
     <t>Power Regulator</t>
   </si>
   <si>
-    <t>C129303</t>
-  </si>
-  <si>
     <t>Capacitor_SMD:C_0805_2012Metric</t>
   </si>
   <si>
-    <t>https://datasheet.lcsc.com/lcsc/1811091110_FH--Guangdong-Fenghua-Advanced-Tech-0805X226M250NT_C129303.pdf</t>
-  </si>
-  <si>
     <t>STM CPU</t>
   </si>
   <si>
@@ -159,9 +132,6 @@
     <t>C9-C10</t>
   </si>
   <si>
-    <t>C11-C12-C13-C14</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -186,24 +156,12 @@
     <t>P1</t>
   </si>
   <si>
-    <t>R1-R7-R8</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>R3-R4-R5-R6</t>
   </si>
   <si>
     <t>R9-R10</t>
   </si>
   <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -237,9 +195,6 @@
     <t>Connector_JST:JST_EH_S6B-EH_1x06_P2.50mm_Horizontal</t>
   </si>
   <si>
-    <t>Connector_USB:USB_C_Plug_Molex_105444</t>
-  </si>
-  <si>
     <t>Resistor_SMD:R_0805_2012Metric</t>
   </si>
   <si>
@@ -264,33 +219,9 @@
     <t>https://datasheet.lcsc.com/lcsc/1912111437_Walsin-Tech-Corp-0805N100J501CT_C384748.pdf</t>
   </si>
   <si>
-    <t>C90544</t>
-  </si>
-  <si>
-    <t>10V 10uF X7R ±10% 0805 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/1811061725_FH--Guangdong-Fenghua-Advanced-Tech-0805B106K100NT_C90544.pdf</t>
-  </si>
-  <si>
     <t>50V 1uF X7R ±10% 0805 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
   </si>
   <si>
-    <t>C77083</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/1810201234_Murata-Electronics-GRM21BR71H105KA12L_C77083.pdf</t>
-  </si>
-  <si>
-    <t>C495959</t>
-  </si>
-  <si>
-    <t>100V 100nF ±10% 0805 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/2003172043_IHHEC-HOLY-STONE-ENTERPRISE-CO---LTD-C0805X104K101TB_C495959.pdf</t>
-  </si>
-  <si>
     <t>C130114</t>
   </si>
   <si>
@@ -309,84 +240,12 @@
     <t>https://datasheet.lcsc.com/lcsc/2203311630_HCTL-HC-XH-9AWT_C2845690.pdf</t>
   </si>
   <si>
-    <t>C5160927</t>
-  </si>
-  <si>
-    <t>1x4P XH 1 2.5mm 4 Straight Straight,P=2.5mm Wire To Board / Wire To Wire Connector ROHS</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/2209141730_DEALON-XHB-D-4A_C5160927.pdf</t>
-  </si>
-  <si>
-    <t>C3029473</t>
-  </si>
-  <si>
-    <t>1x8P 1 2.5mm Male pin 8 -25℃~+85℃ 3A Brick nogging SMD,P=2.5mm Wire To Board / Wire To Wire Connector ROHS</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/2205271830_XUNPU-WAFER-XH2-54-8PLB_C3029473.pdf</t>
-  </si>
-  <si>
-    <t>C2982036</t>
-  </si>
-  <si>
-    <t>1x7P 1 2.54mm Male pin 7 -25℃~+85℃ 4A Straight Straight,P=2.54mm Wire To Board / Wire To Wire Connector ROHS</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/2203111830_HCTL-HC-2510-7A_C2982036.pdf</t>
-  </si>
-  <si>
-    <t>C3008571</t>
-  </si>
-  <si>
-    <t>1x6P 1 2.5mm Male pin 6 -25℃~+85℃ 3A Brick nogging SMD,P=2.5mm Wire To Board / Wire To Wire Connector ROHS</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/2204271615_SHOU-HAN-2-54-6PLTDK_C3008571.pdf</t>
-  </si>
-  <si>
-    <t>C2927037</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/2201121330_DEALON-USB-TYPE-C-017_C2927037.pdf</t>
-  </si>
-  <si>
-    <t>C304820</t>
-  </si>
-  <si>
-    <t>125mW 150V ±100ppm/℃ ±5% -55℃~+155℃ 1.5kΩ 0805 Chip Resistor - Surface Mount ROHS</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/1811061727_FH--Guangdong-Fenghua-Advanced-Tech-RS-05K152JT_C304820.pdf</t>
-  </si>
-  <si>
-    <t>C465472</t>
-  </si>
-  <si>
-    <t>125mW Thick Film Resistors 150V ±100ppm/℃ ±1% -55℃~+155℃ 10kΩ 0805 Chip Resistor - Surface Mount ROHS</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/2001071207_Viking-Tech-CR-05FA7---10K_C465472.pdf</t>
-  </si>
-  <si>
-    <t>C228697</t>
-  </si>
-  <si>
     <t>125mW Thick Film Resistors 150V ±100ppm/℃ ±1% -55℃~+155℃ 2.2kΩ 0805 Chip Resistor - Surface Mount ROHS</t>
   </si>
   <si>
-    <t>https://datasheet.lcsc.com/lcsc/1811062113_YAGEO-AC0805FR-072K2L_C228697.pdf</t>
-  </si>
-  <si>
-    <t>C465474</t>
-  </si>
-  <si>
     <t>125mW Thick Film Resistors 150V ±100ppm/℃ ±1% -55℃~+155℃ 15kΩ 0805 Chip Resistor - Surface Mount ROHS</t>
   </si>
   <si>
-    <t>https://datasheet.lcsc.com/lcsc/2001071207_Viking-Tech-CR-05FA7---15K_C465474.pdf</t>
-  </si>
-  <si>
     <t>C266189</t>
   </si>
   <si>
@@ -405,24 +264,6 @@
     <t>https://datasheet.lcsc.com/lcsc/1809301224_STMicroelectronics-STM32F405RGT6_C15742.pdf</t>
   </si>
   <si>
-    <t>C2999153</t>
-  </si>
-  <si>
-    <t>SOT23-3 Linear Voltage Regulators (LDO) ROHS</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/2204191745_BL-Shanghai-Belling-BL9161G-33BPRT_C2999153.pdf</t>
-  </si>
-  <si>
-    <t>C242218</t>
-  </si>
-  <si>
-    <t>SMD5032-4P Crystals ROHS</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/1811052123_TAITIEN-Elec-XVHCELNANF-25MHZ_C242218.pdf</t>
-  </si>
-  <si>
     <t>C127301</t>
   </si>
   <si>
@@ -441,13 +282,193 @@
     <t>https://datasheet.lcsc.com/lcsc/1810121610_STMicroelectronics-BAT60JFILM_C133103.pdf</t>
   </si>
   <si>
-    <t>Button_Switch_SMD:SW_SPDT_PCM12</t>
-  </si>
-  <si>
-    <t>BOOT Slide NOT SURE</t>
-  </si>
-  <si>
-    <t>SINGLE POLE DOUBLE THROW</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>C351784</t>
+  </si>
+  <si>
+    <t>800mA 1.4V@(1A) Fixed 3.3V~3.3V Positive 1 18V SOT-223 Linear Voltage Regulators (LDO) ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2109151230_PUOLOP-AMS1117-3-3_C351784.pdf</t>
+  </si>
+  <si>
+    <t>C1987261</t>
+  </si>
+  <si>
+    <t>1.6V~3.6V -40℃~+85℃ 3mA ±50ppm 25MHz CMOS SMD5032-4P Oscillators ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2102241736_Seiko-Epson-SG5032CAN-25-000000M-TJGA3_C1987261.pdf</t>
+  </si>
+  <si>
+    <t>1x6 pin male header (X3)</t>
+  </si>
+  <si>
+    <t>1x4 pin male header (X2)</t>
+  </si>
+  <si>
+    <t>Resistor 4.7k (X2)</t>
+  </si>
+  <si>
+    <t>R2-13</t>
+  </si>
+  <si>
+    <t>Button (X2)</t>
+  </si>
+  <si>
+    <t>SW1-SW2</t>
+  </si>
+  <si>
+    <t>Capacitor 100n (X5)</t>
+  </si>
+  <si>
+    <t>C5-C11-C12-C13-C14</t>
+  </si>
+  <si>
+    <t>Resistor 5.1k (X2)</t>
+  </si>
+  <si>
+    <t>Resistor 1.5k (X2)</t>
+  </si>
+  <si>
+    <t>R11-R12</t>
+  </si>
+  <si>
+    <t>R7-R8</t>
+  </si>
+  <si>
+    <t>C45783</t>
+  </si>
+  <si>
+    <t>Basic Part</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1811151152_Samsung-Electro-Mechanics-CL21A226MAQNNNE_C45783.pdf</t>
+  </si>
+  <si>
+    <t>C1710</t>
+  </si>
+  <si>
+    <t>50V 10nF X7R ±10% 0805 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1811151136_Samsung-Electro-Mechanics-CL21B103KBANNNC_C1710.pdf</t>
+  </si>
+  <si>
+    <t>C28323</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1810191216_Samsung-Electro-Mechanics-CL21B105KBFNNNE_C28323.pdf</t>
+  </si>
+  <si>
+    <t>C49678</t>
+  </si>
+  <si>
+    <t>50V 100nF X7R ±10% 0805 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1810101813_YAGEO-CC0805KRX7R9BB104_C49678.pdf</t>
+  </si>
+  <si>
+    <t>C2845685</t>
+  </si>
+  <si>
+    <t>1x4P 1 2.5mm Male pin 4 -25℃~+85℃ 3A Surface Mount SMD,P=2.5mm Wire To Board / Wire To Wire Connector ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2108142130_HCTL-HC-XH-4AWT_C2845685.pdf</t>
+  </si>
+  <si>
+    <t>C2845689</t>
+  </si>
+  <si>
+    <t>1x8P 1 2.5mm Male pin 8 -25℃~+85℃ 3A Surface Mount SMD,P=2.5mm Wire To Board / Wire To Wire Connector ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2108142130_HCTL-HC-XH-8AWT_C2845689.pdf</t>
+  </si>
+  <si>
+    <t>C2845688</t>
+  </si>
+  <si>
+    <t>1x7P 1 2.5mm Male pin 7 -25℃~+85℃ 3A Surface Mount SMD,P=2.5mm Wire To Board / Wire To Wire Connector ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2108142130_HCTL-HC-XH-7AWT_C2845688.pdf</t>
+  </si>
+  <si>
+    <t>C2845687</t>
+  </si>
+  <si>
+    <t>1x6P 1 2.5mm Male pin 6 -25℃~+85℃ 3A Surface Mount SMD,P=2.5mm Wire To Board / Wire To Wire Connector ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2108142130_HCTL-HC-XH-6AWT_C2845687.pdf</t>
+  </si>
+  <si>
+    <t>Resistor 150</t>
+  </si>
+  <si>
+    <t>C17471</t>
+  </si>
+  <si>
+    <t>125mW Thick Film Resistors 150V ±100ppm/℃ ±1% -55℃~+155℃ 150Ω 0805 Chip Resistor - Surface Mount ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2206010216_UNI-ROYAL-Uniroyal-Elec-0805W8F1500T5E_C17471.pdf</t>
+  </si>
+  <si>
+    <t>C4310</t>
+  </si>
+  <si>
+    <t>125mW Thick Film Resistors 150V ±100ppm/℃ ±1% -55℃~+155℃ 1.5kΩ 0805 Chip Resistor - Surface Mount ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2206010216_UNI-ROYAL-Uniroyal-Elec-0805W8F1501T5E_C4310.pdf</t>
+  </si>
+  <si>
+    <t>C17520</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2206010200_UNI-ROYAL-Uniroyal-Elec-0805W8F2201T5E_C17520.pdf</t>
+  </si>
+  <si>
+    <t>C17673</t>
+  </si>
+  <si>
+    <t>125mW Thick Film Resistors 150V ±100ppm/℃ ±1% -55℃~+155℃ 4.7kΩ 0805 Chip Resistor - Surface Mount ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2206010200_UNI-ROYAL-Uniroyal-Elec-0805W8F4701T5E_C17673.pdf</t>
+  </si>
+  <si>
+    <t>C27834</t>
+  </si>
+  <si>
+    <t>125mW Thick Film Resistors 150V ±100ppm/℃ ±1% -55℃~+155℃ 5.1kΩ 0805 Chip Resistor - Surface Mount ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2206010030_UNI-ROYAL-Uniroyal-Elec-0805W8F5101T5E_C27834.pdf</t>
+  </si>
+  <si>
+    <t>C17475</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2206010216_UNI-ROYAL-Uniroyal-Elec-0805W8F1502T5E_C17475.pdf</t>
+  </si>
+  <si>
+    <t>C134092</t>
+  </si>
+  <si>
+    <t>Connector_USB:USB_C_Receptacle_Molex_105450-0101</t>
+  </si>
+  <si>
+    <t>1 24 Female Type-C SMD USB Connectors ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1811131824_MOLEX-1054500101_C134092.pdf</t>
   </si>
 </sst>
 </file>
@@ -457,7 +478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +501,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -498,16 +527,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,10 +553,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -824,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CB574A-5C12-4026-BE97-713F864B6E97}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -874,22 +902,22 @@
     </row>
     <row r="2" spans="1:9" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="G2">
         <v>169368</v>
@@ -898,56 +926,56 @@
         <v>0.01</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>2832610</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3">
-        <v>127394</v>
-      </c>
-      <c r="H3" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>963</v>
@@ -956,114 +984,114 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="G5">
-        <v>12195</v>
+        <v>964249</v>
       </c>
       <c r="H5" s="3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G6">
-        <v>44456</v>
+        <v>3877118</v>
       </c>
       <c r="H6" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="G7">
-        <v>641493</v>
+        <v>11139435</v>
       </c>
       <c r="H7" s="3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G8">
         <v>14047</v>
@@ -1071,28 +1099,28 @@
       <c r="H8" s="3">
         <v>0.02</v>
       </c>
-      <c r="I8" t="s">
-        <v>87</v>
+      <c r="I8" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="G9">
         <v>484</v>
@@ -1101,56 +1129,56 @@
         <v>0.1</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G10">
-        <v>6806</v>
+        <v>317</v>
       </c>
       <c r="H10" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="I10" t="s">
-        <v>93</v>
+        <v>0.13</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="G11">
         <v>1660</v>
@@ -1159,376 +1187,424 @@
         <v>0.19</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G12">
-        <v>9097</v>
+        <v>666</v>
       </c>
       <c r="H12" s="3">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="G13">
-        <v>1083</v>
+        <v>4490</v>
       </c>
       <c r="H13" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.16</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G14">
-        <v>480</v>
+        <v>4563</v>
       </c>
       <c r="H14" s="3">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="G15">
-        <v>1074</v>
+        <v>131932</v>
       </c>
       <c r="H15" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G16">
-        <v>3666</v>
+        <v>419084</v>
       </c>
       <c r="H16" s="3">
         <v>0.01</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="G17">
-        <v>3318</v>
+        <v>1220656</v>
       </c>
       <c r="H17" s="3">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G18">
-        <v>2077</v>
+        <v>749086</v>
       </c>
       <c r="H18" s="3">
         <v>0.01</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="G19">
-        <v>39014</v>
+        <v>2365347</v>
       </c>
       <c r="H19" s="3">
         <v>0.01</v>
       </c>
       <c r="I19" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20">
+        <v>1260266</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I20" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G21">
-        <v>69</v>
+        <v>560155</v>
       </c>
       <c r="H21" s="3">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="G22">
-        <v>2784</v>
+        <v>69</v>
       </c>
       <c r="H22" s="3">
-        <v>11.59</v>
+        <v>0.3</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="G23">
-        <v>2295</v>
+        <v>2784</v>
       </c>
       <c r="H23" s="3">
-        <v>0.05</v>
+        <v>11.59</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="G24">
-        <v>226</v>
+        <v>3559</v>
       </c>
       <c r="H24" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="I24" t="s">
-        <v>128</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25">
+        <v>1073</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{F7E099EA-D8F5-4874-902F-D765EFE57F57}"/>
+    <hyperlink ref="I24" r:id="rId2" xr:uid="{48496D99-BD3E-4AAE-AE56-63301E6E8DD9}"/>
+    <hyperlink ref="I25" r:id="rId3" xr:uid="{3CFAB30B-4A3B-4703-B0DE-B459A1BFAB70}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{A70FA5E9-2993-4056-8DDC-B23D54F634E9}"/>
+    <hyperlink ref="I10" r:id="rId5" xr:uid="{6298CBB4-DDF0-45D2-907B-E67C43BB9759}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/hardware/EV1 Part Selection.xlsx
+++ b/hardware/EV1 Part Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finberg\cisco\hactar\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03B6C9E-E12B-4ED1-8CED-57C3367F3907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA61662B-1521-4F33-888A-C0EE2065BAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C8D90A9-3081-44D1-AFD0-F10A6D1B16D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
   <si>
     <t>Component</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Capacitor 22u (X2)</t>
   </si>
   <si>
-    <t>Capacitor 10p (X2)</t>
-  </si>
-  <si>
     <t>Capacitor 10n</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>C1-C2</t>
   </si>
   <si>
-    <t>C3-C4</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>D2</t>
   </si>
   <si>
-    <t>J1-J2-J6</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>J4</t>
   </si>
   <si>
-    <t>J7</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
@@ -210,15 +198,6 @@
     <t>25V 22uF X5R ±20% 0805 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
   </si>
   <si>
-    <t>C384748</t>
-  </si>
-  <si>
-    <t>500V 10pF NP0 ±5% 0805 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/1912111437_Walsin-Tech-Corp-0805N100J501CT_C384748.pdf</t>
-  </si>
-  <si>
     <t>50V 1uF X7R ±10% 0805 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
   </si>
   <si>
@@ -321,12 +300,6 @@
     <t>SW1-SW2</t>
   </si>
   <si>
-    <t>Capacitor 100n (X5)</t>
-  </si>
-  <si>
-    <t>C5-C11-C12-C13-C14</t>
-  </si>
-  <si>
     <t>Resistor 5.1k (X2)</t>
   </si>
   <si>
@@ -459,16 +432,28 @@
     <t>https://datasheet.lcsc.com/lcsc/2206010216_UNI-ROYAL-Uniroyal-Elec-0805W8F1502T5E_C17475.pdf</t>
   </si>
   <si>
-    <t>C134092</t>
-  </si>
-  <si>
-    <t>Connector_USB:USB_C_Receptacle_Molex_105450-0101</t>
-  </si>
-  <si>
-    <t>1 24 Female Type-C SMD USB Connectors ROHS</t>
-  </si>
-  <si>
-    <t>https://datasheet.lcsc.com/lcsc/1811131824_MOLEX-1054500101_C134092.pdf</t>
+    <t>C4-C5-C11-C12-C13-C14</t>
+  </si>
+  <si>
+    <t>Capacitor 100n (X6)</t>
+  </si>
+  <si>
+    <t>J6-J7-J8</t>
+  </si>
+  <si>
+    <t>J1-J2</t>
+  </si>
+  <si>
+    <t>C165948</t>
+  </si>
+  <si>
+    <t>Connector_USB:USB_C_Receptacle_HRO_TYPE-C-31-M-12</t>
+  </si>
+  <si>
+    <t>5A 1 16 Female Type-C SMD USB Connectors ROHS</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2205251630_Korean-Hroparts-Elec-TYPE-C-31-M-12_C165948.pdf</t>
   </si>
 </sst>
 </file>
@@ -852,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CB574A-5C12-4026-BE97-713F864B6E97}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -863,7 +848,7 @@
     <col min="1" max="1" width="27.26953125" customWidth="1"/>
     <col min="2" max="2" width="21.08984375" customWidth="1"/>
     <col min="3" max="3" width="30.1796875" customWidth="1"/>
-    <col min="4" max="4" width="78.54296875" customWidth="1"/>
+    <col min="4" max="4" width="78.453125" customWidth="1"/>
     <col min="5" max="5" width="14.90625" customWidth="1"/>
     <col min="6" max="6" width="48.08984375" customWidth="1"/>
     <col min="7" max="7" width="12.08984375" customWidth="1"/>
@@ -905,19 +890,19 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>169368</v>
@@ -926,7 +911,7 @@
         <v>0.01</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
@@ -934,19 +919,19 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>2832610</v>
@@ -955,210 +940,210 @@
         <v>0.03</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G4">
-        <v>963</v>
+        <v>964249</v>
       </c>
       <c r="H4" s="3">
-        <v>1.0500000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="G5">
-        <v>964249</v>
+        <v>3877118</v>
       </c>
       <c r="H5" s="3">
         <v>0.01</v>
       </c>
-      <c r="I5" t="s">
-        <v>106</v>
+      <c r="I5" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6">
+        <v>11139435</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>102</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6">
-        <v>3877118</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>11139435</v>
+        <v>14047</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.02</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G8">
-        <v>14047</v>
+        <v>484</v>
       </c>
       <c r="H8" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G9">
-        <v>484</v>
+        <v>317</v>
       </c>
       <c r="H9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>81</v>
+        <v>0.13</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="G10">
-        <v>317</v>
+        <v>1660</v>
       </c>
       <c r="H10" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>114</v>
+        <v>0.19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1166,28 +1151,28 @@
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="G11">
-        <v>1660</v>
+        <v>666</v>
       </c>
       <c r="H11" s="3">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1195,231 +1180,231 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G12">
-        <v>666</v>
+        <v>4490</v>
       </c>
       <c r="H12" s="3">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G13">
-        <v>4490</v>
+        <v>4563</v>
       </c>
       <c r="H13" s="3">
         <v>0.16</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G14">
-        <v>4563</v>
+        <v>44309</v>
       </c>
       <c r="H14" s="3">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="G15">
-        <v>131932</v>
+        <v>419084</v>
       </c>
       <c r="H15" s="3">
-        <v>0.65</v>
+        <v>0.01</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G16">
-        <v>419084</v>
+        <v>1220656</v>
       </c>
       <c r="H16" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17">
+        <v>749086</v>
+      </c>
+      <c r="H17" s="3">
         <v>0.01</v>
       </c>
-      <c r="I16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17">
-        <v>1220656</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.04</v>
-      </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G18">
-        <v>749086</v>
+        <v>2365347</v>
       </c>
       <c r="H18" s="3">
         <v>0.01</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="G19">
-        <v>2365347</v>
+        <v>1260266</v>
       </c>
       <c r="H19" s="3">
         <v>0.01</v>
       </c>
       <c r="I19" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1427,182 +1412,153 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G20">
-        <v>1260266</v>
+        <v>560155</v>
       </c>
       <c r="H20" s="3">
         <v>0.01</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21">
         <v>69</v>
       </c>
-      <c r="G21">
-        <v>560155</v>
-      </c>
       <c r="H21" s="3">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G22">
-        <v>69</v>
+        <v>2784</v>
       </c>
       <c r="H22" s="3">
-        <v>0.3</v>
+        <v>11.59</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G23">
-        <v>2784</v>
+        <v>3559</v>
       </c>
       <c r="H23" s="3">
-        <v>11.59</v>
-      </c>
-      <c r="I23" t="s">
-        <v>75</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G24">
-        <v>3559</v>
+        <v>1073</v>
       </c>
       <c r="H24" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.81</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25">
-        <v>1073</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1" xr:uid="{F7E099EA-D8F5-4874-902F-D765EFE57F57}"/>
-    <hyperlink ref="I24" r:id="rId2" xr:uid="{48496D99-BD3E-4AAE-AE56-63301E6E8DD9}"/>
-    <hyperlink ref="I25" r:id="rId3" xr:uid="{3CFAB30B-4A3B-4703-B0DE-B459A1BFAB70}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{A70FA5E9-2993-4056-8DDC-B23D54F634E9}"/>
-    <hyperlink ref="I10" r:id="rId5" xr:uid="{6298CBB4-DDF0-45D2-907B-E67C43BB9759}"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{F7E099EA-D8F5-4874-902F-D765EFE57F57}"/>
+    <hyperlink ref="I23" r:id="rId2" xr:uid="{48496D99-BD3E-4AAE-AE56-63301E6E8DD9}"/>
+    <hyperlink ref="I24" r:id="rId3" xr:uid="{3CFAB30B-4A3B-4703-B0DE-B459A1BFAB70}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{A70FA5E9-2993-4056-8DDC-B23D54F634E9}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{6298CBB4-DDF0-45D2-907B-E67C43BB9759}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
